--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Export this as TSV" sheetId="1" r:id="rId1"/>
+    <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
     <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
     <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
     <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
@@ -1058,7 +1058,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1189,33 +1192,33 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="I2:I1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: scRNAseq-10xGenomics / scRNAseq / sciRNAseq / snRNAseq / SNARE2-RNAseq." sqref="J2:J1048576">
       <formula1>'assay_type list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: RNA." sqref="K2:K1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="AA2:AA1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AH2:AH1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AL2:AL1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -188,7 +188,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>An acquisition_instrument is the device that contains the signal detection hardware and signal processing software. Assays can generate signals such as light of various intensities or color or signals representing molecular mass.</t>
+          <t>An acquisition instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing the molecular mass.</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="library_final_yield_unit list" sheetId="5" r:id="rId5"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="library_final_yield_unit list" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -32,11 +33,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Current version of metadata schema. Template provides the correct value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -478,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -530,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +575,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -1056,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AP1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1065,160 +1085,166 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="I2:I1048576">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="J2:J1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: scRNAseq-10xGenomics / scRNAseq / sciRNAseq / snRNAseq / SNARE2-RNAseq." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: scRNAseq-10xGenomics / scRNAseq / sciRNAseq / snRNAseq / SNARE2-RNAseq." sqref="K2:K1048576">
       <formula1>'assay_type list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: RNA." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: RNA." sqref="L2:L1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="M2:M1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="AB2:AB1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AH2:AH1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AH2:AH1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AI2:AI1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AL2:AL1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AN2:AN1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1238,7 +1264,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1247,6 +1273,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1256,44 +1300,26 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1312,7 +1338,25 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="library_final_yield_unit list" sheetId="5" r:id="rId5"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="library_final_yield_unit list" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -32,11 +33,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Version of the schema to use when validating this metadata.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-text description of this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -361,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AH1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -439,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -478,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -530,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +588,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -1056,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AQ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1065,108 +1101,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>42</v>
@@ -1175,50 +1211,59 @@
         <v>43</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="I2:I1048576">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: scRNAseq-10xGenomics / scRNAseq / sciRNAseq / snRNAseq / SNARE2-RNAseq." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: scRNAseq-10xGenomics / scRNAseq / sciRNAseq / snRNAseq / SNARE2-RNAseq." sqref="L2:L1048576">
       <formula1>'assay_type list'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: RNA." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: RNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="AC2:AC1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AG2:AG1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AH2:AH1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AJ2:AJ1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AL2:AL1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AN2:AN1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1238,7 +1283,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1247,6 +1292,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1256,45 +1319,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1312,7 +1357,25 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -12,7 +12,10 @@
     <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
     <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
-    <sheet name="library_final_yield_unit list" sheetId="6" r:id="rId6"/>
+    <sheet name="sc_isolation_entity list" sheetId="6" r:id="rId6"/>
+    <sheet name="sc_isolation_enrichment list" sheetId="7" r:id="rId7"/>
+    <sheet name="library_layout list" sheetId="8" r:id="rId8"/>
+    <sheet name="library_final_yield_unit list" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -588,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>version</t>
   </si>
@@ -668,12 +671,30 @@
     <t>sc_isolation_entity</t>
   </si>
   <si>
+    <t>whole cell</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>cell-cell multimer</t>
+  </si>
+  <si>
+    <t>spatially encoded cell barcoding</t>
+  </si>
+  <si>
     <t>sc_isolation_tissue_dissociation</t>
   </si>
   <si>
     <t>sc_isolation_enrichment</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>FACS</t>
+  </si>
+  <si>
     <t>sc_isolation_quality_metric</t>
   </si>
   <si>
@@ -690,6 +711,12 @@
   </si>
   <si>
     <t>library_layout</t>
+  </si>
+  <si>
+    <t>single-end</t>
+  </si>
+  <si>
+    <t>paired-end</t>
   </si>
   <si>
     <t>library_adapter_sequence</t>
@@ -1157,83 +1184,83 @@
         <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="15">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1249,8 +1276,25 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: whole cell / nucleus / cell-cell multimer / spatially encoded cell barcoding." sqref="R2:R1048576">
+      <formula1>'sc_isolation_entity list'!$A$1:$A$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: none / FACS." sqref="T2:T1048576">
+      <formula1>'sc_isolation_enrichment list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="Z2:Z1048576">
+      <formula1>'library_layout list'!$A$1:$A$2</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="AC2:AC1048576">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AG2:AG1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AH2:AH1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
       <formula1>-1e+307</formula1>
@@ -1367,6 +1411,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1375,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>version</t>
   </si>
@@ -635,7 +635,10 @@
     <t>assay_type</t>
   </si>
   <si>
-    <t>scRNAseq-10xGenomics</t>
+    <t>scRNAseq-10xGenomics-v2</t>
+  </si>
+  <si>
+    <t>scRNAseq-10xGenomics-v3</t>
   </si>
   <si>
     <t>scRNAseq</t>
@@ -1166,97 +1169,97 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1267,8 +1270,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: scRNAseq-10xGenomics / scRNAseq / sciRNAseq / snRNAseq / SNARE2-RNAseq." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from assay_type list." sqref="L2:L1048576">
+      <formula1>'assay_type list'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: RNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
@@ -1355,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1384,6 +1387,11 @@
     <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1409,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1419,22 +1427,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1452,12 +1460,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1475,12 +1483,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1506,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -452,11 +452,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Parameter for downstream pipeline; How many cells are expected?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Number of PCR cycles to amplify cDNA</t>
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -521,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +604,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>version</t>
   </si>
@@ -735,6 +748,9 @@
   </si>
   <si>
     <t>cell_barcode_size</t>
+  </si>
+  <si>
+    <t>expected_cell_count</t>
   </si>
   <si>
     <t>library_pcr_cycles</t>
@@ -1119,7 +1135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AR1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1128,7 +1144,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1254,7 @@
         <v>51</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>54</v>
@@ -1258,9 +1274,12 @@
       <c r="AQ1" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
+  <dataValidations count="16">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1296,18 +1315,22 @@
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AI2:AI1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AJ2:AJ1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AJ2:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AK2:AK1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AN2:AN1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AP2:AP1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1498,7 +1521,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -452,7 +452,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Parameter for downstream pipeline; How many cells are expected?</t>
+          <t>How many cells are expected? This may be used in downstream pipelines to guide selection of cell barcodes or segmentation parameters.</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -604,7 +604,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>version</t>
   </si>
@@ -648,7 +648,10 @@
     <t>assay_type</t>
   </si>
   <si>
-    <t>scRNAseq-10xGenomics</t>
+    <t>scRNAseq-10xGenomics-v2</t>
+  </si>
+  <si>
+    <t>scRNAseq-10xGenomics-v3</t>
   </si>
   <si>
     <t>scRNAseq</t>
@@ -1182,100 +1185,100 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1286,8 +1289,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: scRNAseq-10xGenomics / scRNAseq / sciRNAseq / snRNAseq / SNARE2-RNAseq." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from assay_type list." sqref="L2:L1048576">
+      <formula1>'assay_type list'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: RNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
@@ -1378,7 +1381,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1407,6 +1410,11 @@
     <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1432,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1442,22 +1450,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1475,12 +1483,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1498,12 +1506,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1529,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -452,11 +452,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>How many cells are expected? This may be used in downstream pipelines to guide selection of cell barcodes or segmentation parameters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Number of PCR cycles to amplify cDNA</t>
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -521,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +604,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>version</t>
   </si>
@@ -738,6 +751,9 @@
   </si>
   <si>
     <t>cell_barcode_size</t>
+  </si>
+  <si>
+    <t>expected_cell_count</t>
   </si>
   <si>
     <t>library_pcr_cycles</t>
@@ -1122,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AR1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1131,7 +1147,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1257,7 @@
         <v>52</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>55</v>
@@ -1261,9 +1277,12 @@
       <c r="AQ1" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
+  <dataValidations count="16">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1299,18 +1318,22 @@
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AI2:AI1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AI2:AI1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AJ2:AJ1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AJ2:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AK2:AK1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AN2:AN1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AP2:AP1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1506,7 +1529,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -556,7 +556,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percent of bases with Quality scores above Q30</t>
+          <t>Q30 is the weighted average of all the reads (e.g. # bases UMI * q30 UMI + # bases R2 * q30 R2 + ...)</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -361,7 +361,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Whether the library was generated for single-end or paired end sequencing</t>
+          <t>State whether the library was generated for single-end or paired end sequencing.</t>
         </r>
       </text>
     </comment>
@@ -387,7 +387,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>An id for the library. The id may be text and/or numbers</t>
+          <t>A library ID, unique within a TMC, which allows corresponding RNA and chromatin accessibility datasets to be linked.</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -609,7 +609,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>description</t>
@@ -1283,7 +1283,7 @@
     </row>
   </sheetData>
   <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="K2:K1048576">

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -205,7 +205,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -296,7 +296,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A quality metric by visual inspection prior to cell lysis or defined by known parameters such as wells with several cells or no cells. This can be captured at a high level.</t>
+          <t>A quality metric by visual inspection prior to cell lysis or defined by known parameters such as wells with several cells or no cells. This can be captured at a high level. "OK" or "not OK", or with more specificity such as "debris", "clump", "low clump".</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -413,7 +413,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Which read file contains the cell barcode</t>
+          <t>Which read files contains the cell barcodes.</t>
         </r>
       </text>
     </comment>
@@ -609,7 +609,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>description</t>
@@ -744,7 +744,7 @@
     <t>is_technical_replicate</t>
   </si>
   <si>
-    <t>cell_barcode_read</t>
+    <t>cell_barcode_reads</t>
   </si>
   <si>
     <t>cell_barcode_offset</t>
@@ -1283,7 +1283,7 @@
     </row>
   </sheetData>
   <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 3." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="K2:K1048576">

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -413,7 +413,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Which read files contains the cell barcodes.</t>
+          <t>Which read files contains the cell barcodes, formatted as a JSON array.</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -413,7 +413,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Which read files contains the cell barcodes.</t>
+          <t>Which read files contains the cell barcodes: Comma-delimited list.</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -413,7 +413,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Which read file contains the cell barcode</t>
+          <t>Which read file(s) contains the cell barcode. Multiple cell_barcode_read files must be provided as a comma-delimited list (e.g. file1,file2,file3).</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -12,10 +12,12 @@
     <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
     <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
-    <sheet name="sc_isolation_entity list" sheetId="6" r:id="rId6"/>
-    <sheet name="sc_isolation_enrichment list" sheetId="7" r:id="rId7"/>
-    <sheet name="library_layout list" sheetId="8" r:id="rId8"/>
-    <sheet name="library_final_yield_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="is_targeted list" sheetId="6" r:id="rId6"/>
+    <sheet name="sc_isolation_entity list" sheetId="7" r:id="rId7"/>
+    <sheet name="sc_isolation_enrichment list" sheetId="8" r:id="rId8"/>
+    <sheet name="library_layout list" sheetId="9" r:id="rId9"/>
+    <sheet name="is_technical_replicate list" sheetId="10" r:id="rId10"/>
+    <sheet name="library_final_yield_unit list" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -604,7 +606,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>version</t>
   </si>
@@ -673,6 +675,12 @@
   </si>
   <si>
     <t>is_targeted</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>acquisition_instrument_vendor</t>
@@ -1191,94 +1199,94 @@
         <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1295,8 +1303,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: RNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="N2:N1048576">
+      <formula1>'is_targeted list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: whole cell / nucleus / cell-cell multimer / spatially encoded cell barcoding." sqref="R2:R1048576">
       <formula1>'sc_isolation_entity list'!$A$1:$A$4</formula1>
@@ -1307,8 +1315,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="Z2:Z1048576">
       <formula1>'library_layout list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="AC2:AC1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="AC2:AC1048576">
+      <formula1>'is_technical_replicate list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AG2:AG1048576">
       <formula1>-2147483647</formula1>
@@ -1343,6 +1351,47 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
@@ -1442,6 +1491,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1450,45 +1522,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1506,12 +1555,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1570,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1529,7 +1578,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -166,7 +166,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Each assay is placed into one of the following 3 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, and determination of nucleotide sequence.</t>
+          <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -517,7 +517,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Average size of sequencing library fragments estimated via gel electrophoresis or bioanalyzer/tapestation.</t>
+          <t>Average size in basepairs (bp) of sequencing library fragments estimated via gel electrophoresis or bioanalyzer/tapestation.</t>
         </r>
       </text>
     </comment>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="16">
+  <dataValidations count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1303,6 +1303,10 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: none / FACS." sqref="T2:T1048576">
       <formula1>'sc_isolation_enrichment list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="V2:V1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="Z2:Z1048576">
       <formula1>'library_layout list'!$A$1:$A$2</formula1>
@@ -1328,6 +1332,10 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AK2:AK1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AL2:AL1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
       <formula1>-1e+307</formula1>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -1282,7 +1282,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations count="19">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1305,6 +1305,10 @@
       <formula1>'sc_isolation_enrichment list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="V2:V1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="W2:W1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -400,7 +400,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Is the sequencing reaction run in repliucate, TRUE or FALSE</t>
+          <t>Is the sequencing reaction run in replicate, TRUE or FALSE</t>
         </r>
       </text>
     </comment>
@@ -426,11 +426,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Which read file(s) contains the UMI (unique molecular identifier) barcode.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Position(s) in the read at which the umi barcode starts.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Length of the umi barcode in base pairs.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Position(s) in the read at which the cell barcode starts.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -521,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0">
+    <comment ref="AU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -604,12 +643,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>description</t>
@@ -745,6 +784,15 @@
   </si>
   <si>
     <t>cell_barcode_read</t>
+  </si>
+  <si>
+    <t>umi_read</t>
+  </si>
+  <si>
+    <t>umi_offset</t>
+  </si>
+  <si>
+    <t>umi_size</t>
   </si>
   <si>
     <t>cell_barcode_offset</t>
@@ -1138,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR1"/>
+  <dimension ref="A1:AU1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1147,7 +1195,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,13 +1308,13 @@
         <v>53</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>58</v>
@@ -1280,10 +1328,19 @@
       <c r="AR1" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="19">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
+  <dataValidations count="21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 3." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="K2:K1048576">
@@ -1318,34 +1375,42 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="AC2:AC1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AF2:AF1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AG2:AG1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AH2:AH1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AJ2:AJ1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AI2:AI1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AK2:AK1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AJ2:AJ1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AK2:AK1048576">
-      <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AL2:AL1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AP2:AP1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AN2:AN1048576">
+      <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AO2:AO1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AR2:AR1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AS2:AS1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1541,7 +1606,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -1339,7 +1339,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="21">
+  <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 3." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1374,10 +1374,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="AC2:AC1048576">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AF2:AF1048576">
-      <formula1>-2147483647</formula1>
-      <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AG2:AG1048576">
       <formula1>-2147483647</formula1>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -439,7 +439,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Position(s) in the read at which the umi barcode starts.</t>
+          <t>Position in the read at which the umi barcode starts.</t>
         </r>
       </text>
     </comment>
@@ -1339,7 +1339,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="20">
+  <dataValidations count="21">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 3." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
@@ -1374,6 +1374,10 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="AC2:AC1048576">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AF2:AF1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AG2:AG1048576">
       <formula1>-2147483647</formula1>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -400,7 +400,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Is the sequencing reaction run in repliucate, TRUE or FALSE</t>
+          <t>Is the sequencing reaction run in replicate, TRUE or FALSE</t>
         </r>
       </text>
     </comment>
@@ -426,11 +426,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Which read file(s) contains the UMI (unique molecular identifier) barcode.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Position in the read at which the umi barcode starts.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Length of the umi barcode in base pairs.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Position(s) in the read at which the cell barcode starts.</t>
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -482,7 +521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -521,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AQ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AR1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AS1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0">
+    <comment ref="AT1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0">
+    <comment ref="AU1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -604,12 +643,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>description</t>
@@ -745,6 +784,15 @@
   </si>
   <si>
     <t>cell_barcode_read</t>
+  </si>
+  <si>
+    <t>umi_read</t>
+  </si>
+  <si>
+    <t>umi_offset</t>
+  </si>
+  <si>
+    <t>umi_size</t>
   </si>
   <si>
     <t>cell_barcode_offset</t>
@@ -1138,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR1"/>
+  <dimension ref="A1:AU1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1147,7 +1195,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,13 +1308,13 @@
         <v>53</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>58</v>
@@ -1280,10 +1328,19 @@
       <c r="AR1" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="19">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
+  <dataValidations count="21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 3." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="K2:K1048576">
@@ -1318,34 +1375,42 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="AC2:AC1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AF2:AF1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AG2:AG1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AH2:AH1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AJ2:AJ1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AI2:AI1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AK2:AK1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AJ2:AJ1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AK2:AK1048576">
-      <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AL2:AL1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AO2:AO1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AM2:AM1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AP2:AP1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="AN2:AN1048576">
+      <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AO2:AO1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AR2:AR1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AS2:AS1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1541,7 +1606,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>version</t>
   </si>
@@ -691,6 +691,9 @@
   </si>
   <si>
     <t>scRNAseq-10xGenomics-v3</t>
+  </si>
+  <si>
+    <t>snRNAseq-10xGenomics-v2</t>
   </si>
   <si>
     <t>scRNAseq</t>
@@ -1233,109 +1236,109 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +1350,7 @@
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from assay_type list." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$6</formula1>
+      <formula1>'assay_type list'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: RNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
@@ -1458,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,6 +1495,11 @@
     <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1517,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1527,22 +1535,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1560,12 +1568,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1583,12 +1591,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1614,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>version</t>
   </si>
@@ -691,9 +691,6 @@
   </si>
   <si>
     <t>scRNAseq-10xGenomics-v3</t>
-  </si>
-  <si>
-    <t>snRNAseq-10xGenomics-v2</t>
   </si>
   <si>
     <t>scRNAseq</t>
@@ -1236,109 +1233,109 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="AO1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1347,7 @@
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from assay_type list." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$7</formula1>
+      <formula1>'assay_type list'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: RNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
@@ -1461,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1495,11 +1492,6 @@
     <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1509,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1535,22 +1527,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1568,12 +1560,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1591,12 +1583,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1606,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -643,7 +643,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>version</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>snRNAseq-10xGenomics-v2</t>
+  </si>
+  <si>
+    <t>snRNAseq-10xGenomics-v3</t>
   </si>
   <si>
     <t>scRNAseq</t>
@@ -1236,109 +1239,109 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1353,7 @@
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from assay_type list." sqref="L2:L1048576">
-      <formula1>'assay_type list'!$A$1:$A$7</formula1>
+      <formula1>'assay_type list'!$A$1:$A$8</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: RNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
@@ -1461,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1500,6 +1503,11 @@
     <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1525,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1535,22 +1543,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1568,12 +1576,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1591,12 +1599,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -179,7 +179,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The specific type of assay being executed.</t>
+          <t>The UMI sequence length in the 10xGenomics-v2 kit is 10 base pairs and the length in the 10xGenomics-v3 kit is 12 base pairs.</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -257,7 +257,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The type of single cell entity derived from isolation protocol</t>
+          <t>The type of single cell entity derived from isolation protocol.</t>
         </r>
       </text>
     </comment>

--- a/docs/scrnaseq/scrnaseq-metadata.xlsx
+++ b/docs/scrnaseq/scrnaseq-metadata.xlsx
@@ -257,7 +257,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The type of single cell entity derived from isolation protocol.</t>
+          <t>The type of single cell entity derived from isolation protocol</t>
         </r>
       </text>
     </comment>
